--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288"/>
   </bookViews>
   <sheets>
-    <sheet name="Primer borrador TDefinidas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas Def Transacciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +21,31 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0">
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gestión desde la CAJA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="0">
+    <comment ref="K19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0">
+    <comment ref="K20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0">
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -152,9 +178,6 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>…………</t>
-  </si>
-  <si>
     <t>Todas</t>
   </si>
   <si>
@@ -173,9 +196,6 @@
     <t>Mensaje validación - Carga Masiva</t>
   </si>
   <si>
-    <t>……..</t>
-  </si>
-  <si>
     <t>Afiliación Sindical</t>
   </si>
   <si>
@@ -185,9 +205,6 @@
     <t>Fallecido</t>
   </si>
   <si>
-    <t>…….</t>
-  </si>
-  <si>
     <t>Cuota Societaria</t>
   </si>
   <si>
@@ -290,20 +307,137 @@
     <t>Bruto</t>
   </si>
   <si>
-    <t>Prestación/Beneficio</t>
-  </si>
-  <si>
-    <t>Jubilación</t>
-  </si>
-  <si>
-    <t>Pensión</t>
+    <t>Centro de Jubilados</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>Justicia</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t>……… pasamos archivos</t>
+  </si>
+  <si>
+    <t>Info Básica</t>
+  </si>
+  <si>
+    <t>Contactos</t>
+  </si>
+  <si>
+    <t>Autoridades</t>
+  </si>
+  <si>
+    <t>Apoderados</t>
+  </si>
+  <si>
+    <t>Info Bancaria</t>
+  </si>
+  <si>
+    <t>Estados</t>
+  </si>
+  <si>
+    <t>Habilitado</t>
+  </si>
+  <si>
+    <t>Des-Habilitado</t>
+  </si>
+  <si>
+    <t>Suspendido</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Código Entidad</t>
+  </si>
+  <si>
+    <t>Nombre Entidad</t>
+  </si>
+  <si>
+    <t>CUIT</t>
+  </si>
+  <si>
+    <t>Dirección de la entidad</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>E-mail - Domicilio electrónico fijado en CIDI</t>
+  </si>
+  <si>
+    <t>Celular de contacto</t>
+  </si>
+  <si>
+    <t>Número e- expediente</t>
+  </si>
+  <si>
+    <t>Número expediente</t>
+  </si>
+  <si>
+    <t>Fecha de última constancia de vigencia o estado de situación</t>
+  </si>
+  <si>
+    <t>N° de matrícula</t>
+  </si>
+  <si>
+    <t>Fecha de último Balance</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>Fecha inicio mandato</t>
+  </si>
+  <si>
+    <t>Fecha fin mandato</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>N° Cuenta corriente</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +501,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -402,7 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -417,6 +562,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,314 +873,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T42"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O5" sqref="O5:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.5546875" style="2"/>
-    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2"/>
-    <col min="10" max="10" width="3.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2"/>
+    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="D40" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="D41" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="D42" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F4:F6">
+    <sortCondition ref="F4:F6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K38"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2"/>
+    <col min="9" max="9" width="3.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6"/>
+      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="H11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="1" t="s">
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2" t="s">
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="7">
-        <v>45</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T14" s="2" t="s">
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="H15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="T16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="H18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="H30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="H32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="2" t="s">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H33" s="2" t="s">
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="2" t="s">
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H37" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H38" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1035,4 +1476,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Baja</t>
   </si>
   <si>
-    <t>Código Entidad</t>
-  </si>
-  <si>
     <t>Nombre Entidad</t>
   </si>
   <si>
@@ -431,13 +428,22 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla </t>
+  </si>
+  <si>
+    <t>Cód Agrupación</t>
+  </si>
+  <si>
+    <t>Excel con entidades para desa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +518,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -547,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -570,6 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +924,7 @@
         <v>63</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>73</v>
@@ -923,8 +937,8 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>80</v>
+      <c r="D4" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>76</v>
@@ -937,8 +951,8 @@
       <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>81</v>
+      <c r="D5" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -948,8 +962,8 @@
       <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>82</v>
+      <c r="D6" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>75</v>
@@ -960,7 +974,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -968,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -976,31 +990,32 @@
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D11" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D12" s="14" t="s">
-        <v>88</v>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -1008,187 +1023,198 @@
         <v>20</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="D17" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="16" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="16" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D24" s="17" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D25" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="15"/>
+      <c r="D26" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="15"/>
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="15"/>
+      <c r="D34" s="17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="15"/>
+      <c r="D35" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="15"/>
+      <c r="D36" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="16" t="s">
-        <v>68</v>
+      <c r="D37" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
-      <c r="D40" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="D41" s="17" t="s">
-        <v>85</v>
+      <c r="D41" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
       <c r="D42" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="15"/>
-    </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="15"/>
+      <c r="D45" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="17" t="s">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="17" t="s">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="17" t="s">
-        <v>98</v>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,21 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Obra Social</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -437,6 +451,9 @@
   </si>
   <si>
     <t>Excel con entidades para desa</t>
+  </si>
+  <si>
+    <t>Ayuda Económica?</t>
   </si>
 </sst>
 </file>
@@ -887,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O54"/>
+  <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,328 +915,394 @@
     <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="2"/>
-    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="22.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2"/>
+    <col min="10" max="10" width="19.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="13" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="13" t="s">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="13" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="G15" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="D17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="13" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="16" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="17" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="17" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="17" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="17" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="17" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="16" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="17" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="17" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="17" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="17" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="17" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="D41" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
-      <c r="D42" s="17" t="s">
+      <c r="G42" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="17" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="17" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="17" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="17" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="16" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="17" t="s">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="17" t="s">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="17" t="s">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="17" t="s">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="17" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F4:F6">
-    <sortCondition ref="F4:F6"/>
+  <sortState ref="I4:I6">
+    <sortCondition ref="I4:I6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1231,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
-    <sheet name="Tablas Def Transacciones" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tablas Transacciones Entidad" sheetId="2" r:id="rId2"/>
+    <sheet name="Tablas Transacciones Grales" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,21 +21,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Obra Social</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -333,9 +319,6 @@
     <t>Gobierno</t>
   </si>
   <si>
-    <t>……… pasamos archivos</t>
-  </si>
-  <si>
     <t>Info Básica</t>
   </si>
   <si>
@@ -363,9 +346,6 @@
     <t>Suspendido</t>
   </si>
   <si>
-    <t>Baja</t>
-  </si>
-  <si>
     <t>Nombre Entidad</t>
   </si>
   <si>
@@ -453,7 +433,10 @@
     <t>Excel con entidades para desa</t>
   </si>
   <si>
-    <t>Ayuda Económica?</t>
+    <t>Aseguradoras</t>
+  </si>
+  <si>
+    <t>Compañías Financieras</t>
   </si>
 </sst>
 </file>
@@ -543,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +545,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -577,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -601,6 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,405 +894,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R54"/>
+  <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2"/>
-    <col min="10" max="10" width="19.88671875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="8.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E6" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="13" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="13" t="s">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="13" t="s">
+    <row r="15" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="G16" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="G17" s="13" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="13" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="16" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="E27" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="E28" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="E29" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="17" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="17" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="17" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="E41" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="E42" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="17" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="G41" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="G42" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G43" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G44" s="17" t="s">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G45" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G46" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G50" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G51" s="17" t="s">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G52" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G53" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G54" s="17" t="s">
-        <v>97</v>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I4:I6">
-    <sortCondition ref="I4:I6"/>
+  <sortState ref="H4:H6">
+    <sortCondition ref="H4:H6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1312,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K38"/>
+  <dimension ref="C2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1244,7 @@
     <col min="11" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1340,8 +1255,9 @@
       <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1351,8 +1267,9 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1362,8 +1279,9 @@
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1374,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1382,12 +1300,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1399,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1421,7 +1339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1589,17 +1507,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0">
+    <comment ref="K7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="149">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Número expediente</t>
   </si>
   <si>
-    <t>Fecha de última constancia de vigencia o estado de situación</t>
-  </si>
-  <si>
     <t>N° de matrícula</t>
   </si>
   <si>
@@ -437,13 +434,145 @@
   </si>
   <si>
     <t>Compañías Financieras</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Obra social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra social </t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Adicionales Obra Social</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Caja de Jubilaciones</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Gobierno de Cba</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>AFIP</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rentas </t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Direcc.Gral.Rentas</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justicia </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Cuota Alimentaria</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Retencion Judicial</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>BANCO Córdoba</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Cnías Financieras</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Cuotas Sind-Mutuales</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Afiliacion Sindical</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Entidades Adherentes</t>
+  </si>
+  <si>
+    <t>Agupador Entidad</t>
+  </si>
+  <si>
+    <t>Tipo de Entidad</t>
+  </si>
+  <si>
+    <t>Agrupador Liquidador</t>
+  </si>
+  <si>
+    <t>Concepto Agrupador</t>
+  </si>
+  <si>
+    <t>Fecha de última constancia de vigencia</t>
+  </si>
+  <si>
+    <t>Subsidio por fallecimiento</t>
+  </si>
+  <si>
+    <t>Retención Caja</t>
+  </si>
+  <si>
+    <t>Seguro de vida</t>
+  </si>
+  <si>
+    <t>Impuesto a las Ganancias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +654,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +687,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -566,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -591,6 +733,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,333 +1065,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P54"/>
+  <dimension ref="B2:V54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="4.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="26.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="27"/>
+    <col min="5" max="5" width="23.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="2"/>
+    <col min="8" max="8" width="21.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:22" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="H2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3"/>
+      <c r="H3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4"/>
+      <c r="H4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="K4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5"/>
+      <c r="H5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6"/>
+      <c r="H6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="18" t="s">
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7"/>
+      <c r="H7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8"/>
+      <c r="H8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9"/>
+      <c r="H9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10"/>
+      <c r="H10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11"/>
+      <c r="H11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12"/>
+      <c r="H12" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13"/>
+      <c r="K13" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14"/>
+      <c r="K14" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15"/>
+      <c r="K15" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16"/>
+      <c r="H16" s="12"/>
+      <c r="K16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17"/>
+      <c r="H17" s="12"/>
+      <c r="K17" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="30">
+        <v>11</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="28">
+        <v>60</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="13" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="12"/>
+      <c r="K27" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H28" s="12"/>
+      <c r="K28" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E13" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E14" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E15" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="E16" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="E17" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="13" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H29" s="12"/>
+      <c r="K29" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="17" t="s">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="17" t="s">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="E27" s="17" t="s">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="E28" s="17" t="s">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="10"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="11"/>
+      <c r="K41" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="11"/>
+      <c r="K42" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="E29" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="E41" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="E42" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="17" t="s">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="17" t="s">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="17" t="s">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="17" t="s">
-        <v>95</v>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="H4:H6">
-    <sortCondition ref="H4:H6"/>
+  <sortState ref="N4:N6">
+    <sortCondition ref="N4:N6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3:D18 B3:B18" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1509,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1921,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
-    <sheet name="Tablas Transacciones Entidad" sheetId="2" r:id="rId2"/>
-    <sheet name="Tablas Transacciones Grales" sheetId="3" r:id="rId3"/>
+    <sheet name="Tablas TransaccionesGenerales " sheetId="4" r:id="rId2"/>
+    <sheet name="Old" sheetId="2" r:id="rId3"/>
+    <sheet name="Old 1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0">
+    <comment ref="K18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0">
+    <comment ref="K19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -566,13 +567,55 @@
   </si>
   <si>
     <t>Impuesto a las Ganancias</t>
+  </si>
+  <si>
+    <t>TipoTransacción</t>
+  </si>
+  <si>
+    <t>Base Descuento</t>
+  </si>
+  <si>
+    <t>Sueldo Básico</t>
+  </si>
+  <si>
+    <t>Sueldo Bruto</t>
+  </si>
+  <si>
+    <t>Ayuda económica</t>
+  </si>
+  <si>
+    <t>ImpactoDescuento</t>
+  </si>
+  <si>
+    <t>Embargo</t>
+  </si>
+  <si>
+    <t>Beneficio</t>
+  </si>
+  <si>
+    <t>Cuota alimentaria</t>
+  </si>
+  <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>ParteAplicación</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +704,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -708,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -762,6 +812,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,7 +1122,7 @@
   <dimension ref="B2:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,11 +1681,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O38"/>
+  <dimension ref="C2:O31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,16 +1852,24 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
@@ -1723,10 +1877,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K12" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
@@ -1734,10 +1888,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
@@ -1745,12 +1896,15 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="G15" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
@@ -1758,11 +1912,11 @@
         <v>35</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>37</v>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
@@ -1770,22 +1924,16 @@
         <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K19" s="8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
@@ -1796,107 +1944,97 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="K27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="G30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>24</v>
+      <c r="G30" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="G32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G38" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1906,12 +2044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/MID - Tablas Definidas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/814806da9b161d5e/Documentos/Proyecto MID-Caja/Repositorio/documentacion/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9EE8B6C6-A81F-4C53-B5E5-2399B5C6CACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22116" windowHeight="9288"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas Def Entidad" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="K7" authorId="0">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,12 +47,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Usuario de Windows</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0">
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>Tipo Entidad</t>
   </si>
@@ -609,12 +615,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Agrupador de Prioridad</t>
+  </si>
+  <si>
+    <t>Deuda</t>
+  </si>
+  <si>
+    <t>Devolución</t>
+  </si>
+  <si>
+    <t>Sin definir</t>
+  </si>
+  <si>
+    <t>Subsidio</t>
+  </si>
+  <si>
+    <t>Retroactivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,6 +701,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -774,13 +799,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -789,13 +812,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -811,22 +834,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -875,7 +903,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,9 +936,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,6 +988,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,47 +1180,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="26.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="27"/>
-    <col min="5" max="5" width="23.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2"/>
-    <col min="8" max="8" width="21.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2"/>
+    <col min="3" max="3" width="26.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="25"/>
+    <col min="5" max="5" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2"/>
+    <col min="8" max="8" width="21.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:22" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="20"/>
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1168,21 +1230,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>107</v>
       </c>
       <c r="F3"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -1192,21 +1254,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>109</v>
       </c>
       <c r="F4"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
@@ -1216,21 +1278,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>145</v>
       </c>
       <c r="F5"/>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="12" t="s">
@@ -1240,84 +1302,84 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>146</v>
       </c>
       <c r="F6"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>148</v>
       </c>
       <c r="F8"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>120</v>
       </c>
       <c r="F9"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -1325,42 +1387,42 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E10" t="s">
         <v>124</v>
       </c>
       <c r="F10"/>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
       </c>
       <c r="F11"/>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="22" t="s">
         <v>103</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -1368,35 +1430,35 @@
       </c>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>129</v>
       </c>
       <c r="F12"/>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="22" t="s">
         <v>104</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E13" t="s">
@@ -1407,14 +1469,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E14" t="s">
@@ -1425,17 +1487,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>137</v>
       </c>
       <c r="F15"/>
@@ -1443,17 +1505,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>133</v>
       </c>
       <c r="F16"/>
@@ -1462,17 +1524,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>133</v>
       </c>
       <c r="F17"/>
@@ -1481,20 +1543,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="30">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
         <v>11</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <v>60</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="19"/>
       <c r="H18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1502,173 +1564,151 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H19" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="16" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="17" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="17" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="17" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="17" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="17" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" s="12"/>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="12"/>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H29" s="12"/>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K32" s="16" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K33" s="17" t="s">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="17" t="s">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="17" t="s">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K36" s="17" t="s">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K37" s="17" t="s">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="10"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" s="11"/>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" s="11"/>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K43" s="17" t="s">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K44" s="17" t="s">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K45" s="17" t="s">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K46" s="17" t="s">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="16" t="s">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="17" t="s">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="17" t="s">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="17" t="s">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K54" s="17" t="s">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="15" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="N4:N6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N4:N6">
     <sortCondition ref="N4:N6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,27 +1721,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1750,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1717,52 +1758,127 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="34" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C20" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1773,25 +1889,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:O31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="3.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="5" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="3.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1920,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1932,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1944,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1839,7 +1955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1847,12 +1963,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1860,7 +1976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1891,7 +2007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +2015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +2023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1919,7 +2035,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1930,17 +2046,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +2070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1968,7 +2084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +2098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1996,7 +2112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2004,7 +2120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2012,18 +2128,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="G29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
@@ -2032,7 +2148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
@@ -2045,69 +2161,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
